--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/sofia_bucci_dedalus_eu/Documents/Desktop/FSE2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariasole.ieraci\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C47940E8-B46E-4AC3-BD99-7990C35BEB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464148D6-954D-4664-9C2A-E16403CA618F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2C73CF-6EC5-4519-A6EB-44697033BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="499">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1905,6 +1905,9 @@
   </si>
   <si>
     <t>"description":"JavaException: java.net.SocketTimeoutException: Read timed out"</t>
+  </si>
+  <si>
+    <t>campo valorizzato di default</t>
   </si>
 </sst>
 </file>
@@ -2395,7 +2398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2546,12 +2549,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
@@ -2628,10 +2625,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4002,10 +3995,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
+      <selection pane="bottomRight" activeCell="K191" sqref="K191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9838,7 +9831,7 @@
       </c>
       <c r="K156" s="29"/>
       <c r="L156" s="29"/>
-      <c r="M156" s="61" t="s">
+      <c r="M156" s="46" t="s">
         <v>76</v>
       </c>
       <c r="N156" s="29" t="s">
@@ -9899,7 +9892,7 @@
       </c>
       <c r="K157" s="29"/>
       <c r="L157" s="29"/>
-      <c r="M157" s="60" t="s">
+      <c r="M157" s="44" t="s">
         <v>76</v>
       </c>
       <c r="N157" s="29" t="s">
@@ -11374,7 +11367,7 @@
         <v>433</v>
       </c>
       <c r="K191" s="31" t="s">
-        <v>403</v>
+        <v>498</v>
       </c>
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>
@@ -17798,18 +17791,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17957,18 +17950,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariasole.ieraci\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/mariasole_ieraci_dedalus_eu/Documents/Documenti/Progetto/XMLCDA2/Accreditamento/Armonia/CORELAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2C73CF-6EC5-4519-A6EB-44697033BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FE2C73CF-6EC5-4519-A6EB-44697033BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE46B1F9-E6EE-461C-92F0-778157030990}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="498">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1905,9 +1905,6 @@
   </si>
   <si>
     <t>"description":"JavaException: java.net.SocketTimeoutException: Read timed out"</t>
-  </si>
-  <si>
-    <t>campo valorizzato di default</t>
   </si>
 </sst>
 </file>
@@ -11366,8 +11363,8 @@
       <c r="J191" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="K191" s="31" t="s">
-        <v>498</v>
+      <c r="K191" s="29" t="s">
+        <v>400</v>
       </c>
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>
@@ -15540,7 +15537,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K180</xm:sqref>
+          <xm:sqref>K10:K181 K191</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17791,21 +17788,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E980A3C6D7D2AC4FB8F1351282FCB67E" ma:contentTypeVersion="4" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="a035f62bc97934b75b5b10d5f9becf52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df007bc9-b664-4ae0-99d9-78204dd59fdd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f281a0f92954e731a67e3fc71a6798f4" ns2:_="">
     <xsd:import namespace="df007bc9-b664-4ae0-99d9-78204dd59fdd"/>
@@ -17949,24 +17931,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EFEAD8F-8ED6-4CD5-8C0E-0D4FD908CA99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17982,4 +17962,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/mariasole_ieraci_dedalus_eu/Documents/Documenti/Progetto/XMLCDA2/Accreditamento/Armonia/CORELAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GTW-CERTIFIER\DEDALUS SPA\CORELAB\2.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FE2C73CF-6EC5-4519-A6EB-44697033BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE46B1F9-E6EE-461C-92F0-778157030990}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF964D90-BDA5-4C07-998A-8039814C218F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1868,43 +1868,43 @@
     <t>Poiché l'errore è bloccante, non è possibile procedere con la firma e la sottomissione al repository. L'utente dovrà attendere la risoluzione della non conformità e riprovare a firmare il referto.</t>
   </si>
   <si>
-    <t>2025-04-03T17:10:47Z</t>
-  </si>
-  <si>
-    <t>12eb78ca1763b2a6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.fb835323fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-03T18:35:47Z</t>
-  </si>
-  <si>
-    <t>84faff4e95025045</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.7fa5c5ad46^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-03T19:15:00Z</t>
-  </si>
-  <si>
-    <t>9491ea2b03fe5ff2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.ce9ee0b55a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-04T09:15:47Z</t>
-  </si>
-  <si>
-    <t>fdc90c38b5775cd5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.7c8f4a0f33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>"description":"JavaException: java.net.SocketTimeoutException: Read timed out"</t>
+  </si>
+  <si>
+    <t>2025-04-11T14:40:47Z</t>
+  </si>
+  <si>
+    <t>4616b2f584f3b848cad0c2741ef4edc0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.b5565abd49^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-11T15:05:47Z</t>
+  </si>
+  <si>
+    <t>e9e981a4da52cfe3f251214d7a16ed15</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.2c579f242c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-11T15:24:17Z</t>
+  </si>
+  <si>
+    <t>810bcc0fb1afc06ca984b4b4782ce4a7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.257a176411^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-11T16:00:00Z</t>
+  </si>
+  <si>
+    <t>3b606356729f67891e65170dbcaa1786</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.947d3771f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3992,7 +3992,7 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="K191" sqref="K191"/>
@@ -9494,16 +9494,16 @@
         <v>316</v>
       </c>
       <c r="F150" s="33">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="I150" s="39" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J150" s="29" t="s">
         <v>76</v>
@@ -9541,16 +9541,16 @@
         <v>318</v>
       </c>
       <c r="F151" s="33">
-        <v>45750</v>
+        <v>45758</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I151" s="39" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J151" s="29" t="s">
         <v>76</v>
@@ -9588,16 +9588,16 @@
         <v>320</v>
       </c>
       <c r="F152" s="33">
-        <v>45750</v>
+        <v>45758</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I152" s="39" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="J152" s="29" t="s">
         <v>76</v>
@@ -9774,7 +9774,7 @@
         <v>76</v>
       </c>
       <c r="O155" s="29" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="P155" s="29" t="s">
         <v>433</v>
@@ -10977,16 +10977,16 @@
         <v>376</v>
       </c>
       <c r="F181" s="33">
-        <v>45750</v>
+        <v>45758</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H181" s="33" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="I181" s="39" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="J181" s="29" t="s">
         <v>76</v>
@@ -17788,6 +17788,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E980A3C6D7D2AC4FB8F1351282FCB67E" ma:contentTypeVersion="4" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="a035f62bc97934b75b5b10d5f9becf52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df007bc9-b664-4ae0-99d9-78204dd59fdd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f281a0f92954e731a67e3fc71a6798f4" ns2:_="">
     <xsd:import namespace="df007bc9-b664-4ae0-99d9-78204dd59fdd"/>
@@ -17931,22 +17946,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EFEAD8F-8ED6-4CD5-8C0E-0D4FD908CA99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17962,21 +17979,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia.bucci\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GTW-CERTIFIER\DEDALUS SPA\CORELAB\2.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39CE293-092F-4120-9243-5C2814FA7038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F3AE6E-5E22-4099-993D-DD5438A7F547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="498">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1711,10 +1711,6 @@
   </si>
   <si>
     <t>471, 472</t>
-  </si>
-  <si>
-    <t>Poiché l'errore è bloccante, non è possibile procedere con la firma e la sottomissione al repository. L'utente dovrà correggere la non conformità e riprovare a firmare il referto.
-È stata introdotta la possibilità di bypassare la validazione, configurando opportunamente il software. In questo modo, nei casi di emergenza (come diagnosi estemporanee), il medico potrà comunque procedere con la produzione e la firma del referto.</t>
   </si>
   <si>
     <t>"title":"Errore semantico.",
@@ -2386,7 +2382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2506,6 +2502,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2527,34 +2526,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4002,10 +3973,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S190" sqref="S190"/>
+      <selection pane="bottomRight" activeCell="M166" sqref="M166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4047,12 +4018,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="49"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4073,14 +4044,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="D3" s="48"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4101,12 +4072,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="48"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4128,12 +4099,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="D5" s="48"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="49"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4154,8 +4125,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9523,262 +9494,266 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:23" s="65" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="57">
+    <row r="151" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="35">
         <v>417</v>
       </c>
-      <c r="B151" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C151" s="58" t="s">
+      <c r="B151" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="D151" s="57" t="s">
+      <c r="D151" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E151" s="59" t="s">
+      <c r="E151" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="F151" s="60">
+      <c r="F151" s="37">
         <v>45793</v>
       </c>
-      <c r="G151" s="60" t="s">
+      <c r="G151" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="H151" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="H151" s="60" t="s">
+      <c r="I151" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="I151" s="61" t="s">
+      <c r="J151" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K151" s="38"/>
+      <c r="L151" s="38"/>
+      <c r="M151" s="38"/>
+      <c r="N151" s="38"/>
+      <c r="O151" s="38"/>
+      <c r="P151" s="38"/>
+      <c r="Q151" s="38"/>
+      <c r="R151" s="38"/>
+      <c r="S151" s="38"/>
+      <c r="T151" s="38"/>
+      <c r="U151" s="39"/>
+      <c r="V151" s="40"/>
+      <c r="W151" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="35">
+        <v>418</v>
+      </c>
+      <c r="B152" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E152" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" s="37">
+        <v>45793</v>
+      </c>
+      <c r="G152" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="H152" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="I152" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="J152" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K152" s="38"/>
+      <c r="L152" s="38"/>
+      <c r="M152" s="38"/>
+      <c r="N152" s="38"/>
+      <c r="O152" s="38"/>
+      <c r="P152" s="38"/>
+      <c r="Q152" s="38"/>
+      <c r="R152" s="38"/>
+      <c r="S152" s="38"/>
+      <c r="T152" s="38"/>
+      <c r="U152" s="39"/>
+      <c r="V152" s="40"/>
+      <c r="W152" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="35">
+        <v>419</v>
+      </c>
+      <c r="B153" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E153" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="F153" s="37">
+        <v>45793</v>
+      </c>
+      <c r="G153" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="J151" s="62" t="s">
+      <c r="H153" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="I153" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="J153" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K151" s="62"/>
-      <c r="L151" s="62"/>
-      <c r="M151" s="62"/>
-      <c r="N151" s="62"/>
-      <c r="O151" s="62"/>
-      <c r="P151" s="62"/>
-      <c r="Q151" s="62"/>
-      <c r="R151" s="62"/>
-      <c r="S151" s="62"/>
-      <c r="T151" s="62"/>
-      <c r="U151" s="63"/>
-      <c r="V151" s="64"/>
-      <c r="W151" s="62" t="s">
+      <c r="K153" s="38"/>
+      <c r="L153" s="38"/>
+      <c r="M153" s="38"/>
+      <c r="N153" s="38"/>
+      <c r="O153" s="38"/>
+      <c r="P153" s="38"/>
+      <c r="Q153" s="38"/>
+      <c r="R153" s="38"/>
+      <c r="S153" s="38"/>
+      <c r="T153" s="38"/>
+      <c r="U153" s="39"/>
+      <c r="V153" s="40"/>
+      <c r="W153" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:23" s="65" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="57">
-        <v>418</v>
-      </c>
-      <c r="B152" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C152" s="58" t="s">
+    <row r="154" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="35">
+        <v>423</v>
+      </c>
+      <c r="B154" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="D152" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="E152" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="F152" s="60">
+      <c r="D154" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E154" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" s="37">
         <v>45793</v>
       </c>
-      <c r="G152" s="60" t="s">
-        <v>486</v>
-      </c>
-      <c r="H152" s="60" t="s">
-        <v>487</v>
-      </c>
-      <c r="I152" s="61" t="s">
-        <v>488</v>
-      </c>
-      <c r="J152" s="62" t="s">
+      <c r="G154" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="H154" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="I154" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="J154" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K152" s="62"/>
-      <c r="L152" s="62"/>
-      <c r="M152" s="62"/>
-      <c r="N152" s="62"/>
-      <c r="O152" s="62"/>
-      <c r="P152" s="62"/>
-      <c r="Q152" s="62"/>
-      <c r="R152" s="62"/>
-      <c r="S152" s="62"/>
-      <c r="T152" s="62"/>
-      <c r="U152" s="63"/>
-      <c r="V152" s="64"/>
-      <c r="W152" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" s="65" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="57">
-        <v>419</v>
-      </c>
-      <c r="B153" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C153" s="58" t="s">
+      <c r="K154" s="38"/>
+      <c r="L154" s="38"/>
+      <c r="M154" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N154" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O154" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="P154" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q154" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="R154" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="S154" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="T154" s="38"/>
+      <c r="U154" s="39"/>
+      <c r="V154" s="40"/>
+      <c r="W154" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="35">
+        <v>424</v>
+      </c>
+      <c r="B155" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="D153" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="E153" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="F153" s="60">
+      <c r="D155" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="E155" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F155" s="37">
         <v>45793</v>
       </c>
-      <c r="G153" s="60" t="s">
-        <v>489</v>
-      </c>
-      <c r="H153" s="60" t="s">
-        <v>490</v>
-      </c>
-      <c r="I153" s="61" t="s">
-        <v>491</v>
-      </c>
-      <c r="J153" s="62" t="s">
+      <c r="G155" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="H155" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="I155" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="J155" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K153" s="62"/>
-      <c r="L153" s="62"/>
-      <c r="M153" s="62"/>
-      <c r="N153" s="62"/>
-      <c r="O153" s="62"/>
-      <c r="P153" s="62"/>
-      <c r="Q153" s="62"/>
-      <c r="R153" s="62"/>
-      <c r="S153" s="62"/>
-      <c r="T153" s="62"/>
-      <c r="U153" s="63"/>
-      <c r="V153" s="64"/>
-      <c r="W153" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" s="65" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="57">
-        <v>423</v>
-      </c>
-      <c r="B154" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C154" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="D154" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="E154" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="F154" s="60">
-        <v>45793</v>
-      </c>
-      <c r="G154" s="60" t="s">
-        <v>482</v>
-      </c>
-      <c r="H154" s="60" t="s">
-        <v>483</v>
-      </c>
-      <c r="I154" s="61" t="s">
+      <c r="K155" s="38"/>
+      <c r="L155" s="38"/>
+      <c r="M155" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N155" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O155" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="J154" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K154" s="62"/>
-      <c r="L154" s="62"/>
-      <c r="M154" s="62"/>
-      <c r="N154" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="O154" s="62" t="s">
-        <v>442</v>
-      </c>
-      <c r="P154" s="62" t="s">
+      <c r="P155" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="Q154" s="62" t="s">
+      <c r="Q155" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="R154" s="62" t="s">
+      <c r="R155" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="S154" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="T154" s="62"/>
-      <c r="U154" s="63"/>
-      <c r="V154" s="64"/>
-      <c r="W154" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" s="65" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="57">
-        <v>424</v>
-      </c>
-      <c r="B155" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="D155" s="57" t="s">
-        <v>259</v>
-      </c>
-      <c r="E155" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="F155" s="60">
-        <v>45793</v>
-      </c>
-      <c r="G155" s="60" t="s">
-        <v>484</v>
-      </c>
-      <c r="H155" s="60" t="s">
-        <v>485</v>
-      </c>
-      <c r="I155" s="61" t="s">
-        <v>440</v>
-      </c>
-      <c r="J155" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K155" s="62"/>
-      <c r="L155" s="62"/>
-      <c r="M155" s="62"/>
-      <c r="N155" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="O155" s="62" t="s">
-        <v>441</v>
-      </c>
-      <c r="P155" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q155" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="R155" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="S155" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="T155" s="62"/>
-      <c r="U155" s="63"/>
-      <c r="V155" s="64"/>
-      <c r="W155" s="62" t="s">
+      <c r="S155" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="T155" s="38"/>
+      <c r="U155" s="39"/>
+      <c r="V155" s="40"/>
+      <c r="W155" s="38" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9809,12 +9784,14 @@
       </c>
       <c r="K156" s="38"/>
       <c r="L156" s="38"/>
-      <c r="M156" s="38"/>
+      <c r="M156" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N156" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O156" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P156" s="38" t="s">
         <v>232</v>
@@ -9826,7 +9803,7 @@
         <v>232</v>
       </c>
       <c r="S156" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T156" s="38"/>
       <c r="U156" s="39"/>
@@ -9851,29 +9828,31 @@
       <c r="E157" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="F157" s="66">
+      <c r="F157" s="45">
         <v>45792</v>
       </c>
       <c r="G157" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H157" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="H157" s="37" t="s">
+      <c r="I157" s="42" t="s">
         <v>444</v>
-      </c>
-      <c r="I157" s="42" t="s">
-        <v>445</v>
       </c>
       <c r="J157" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K157" s="38"/>
       <c r="L157" s="38"/>
-      <c r="M157" s="38"/>
+      <c r="M157" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N157" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O157" s="38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P157" s="38" t="s">
         <v>232</v>
@@ -9885,7 +9864,7 @@
         <v>232</v>
       </c>
       <c r="S157" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T157" s="38"/>
       <c r="U157" s="39"/>
@@ -9914,25 +9893,27 @@
         <v>45792</v>
       </c>
       <c r="G158" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="H158" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="H158" s="37" t="s">
+      <c r="I158" s="42" t="s">
         <v>448</v>
-      </c>
-      <c r="I158" s="42" t="s">
-        <v>449</v>
       </c>
       <c r="J158" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K158" s="38"/>
       <c r="L158" s="38"/>
-      <c r="M158" s="38"/>
+      <c r="M158" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N158" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O158" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P158" s="38" t="s">
         <v>232</v>
@@ -9944,7 +9925,7 @@
         <v>232</v>
       </c>
       <c r="S158" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T158" s="38"/>
       <c r="U158" s="39"/>
@@ -9973,25 +9954,27 @@
         <v>45792</v>
       </c>
       <c r="G159" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="H159" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="H159" s="37" t="s">
+      <c r="I159" s="42" t="s">
         <v>452</v>
-      </c>
-      <c r="I159" s="42" t="s">
-        <v>453</v>
       </c>
       <c r="J159" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K159" s="38"/>
       <c r="L159" s="38"/>
-      <c r="M159" s="38"/>
+      <c r="M159" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N159" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O159" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P159" s="38" t="s">
         <v>232</v>
@@ -10003,7 +9986,7 @@
         <v>232</v>
       </c>
       <c r="S159" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T159" s="38"/>
       <c r="U159" s="39"/>
@@ -10032,25 +10015,27 @@
         <v>45792</v>
       </c>
       <c r="G160" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="H160" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="H160" s="37" t="s">
+      <c r="I160" s="42" t="s">
         <v>456</v>
-      </c>
-      <c r="I160" s="42" t="s">
-        <v>457</v>
       </c>
       <c r="J160" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K160" s="38"/>
       <c r="L160" s="38"/>
-      <c r="M160" s="38"/>
+      <c r="M160" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N160" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O160" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P160" s="38" t="s">
         <v>232</v>
@@ -10062,7 +10047,7 @@
         <v>232</v>
       </c>
       <c r="S160" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T160" s="38"/>
       <c r="U160" s="39"/>
@@ -10091,25 +10076,27 @@
         <v>45792</v>
       </c>
       <c r="G161" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="H161" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="H161" s="37" t="s">
+      <c r="I161" s="42" t="s">
         <v>460</v>
-      </c>
-      <c r="I161" s="42" t="s">
-        <v>461</v>
       </c>
       <c r="J161" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K161" s="38"/>
       <c r="L161" s="38"/>
-      <c r="M161" s="38"/>
+      <c r="M161" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N161" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O161" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P161" s="38" t="s">
         <v>232</v>
@@ -10121,7 +10108,7 @@
         <v>232</v>
       </c>
       <c r="S161" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T161" s="38"/>
       <c r="U161" s="39"/>
@@ -10150,25 +10137,27 @@
         <v>45792</v>
       </c>
       <c r="G162" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="H162" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="H162" s="37" t="s">
+      <c r="I162" s="42" t="s">
         <v>464</v>
-      </c>
-      <c r="I162" s="42" t="s">
-        <v>465</v>
       </c>
       <c r="J162" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K162" s="38"/>
       <c r="L162" s="38"/>
-      <c r="M162" s="38"/>
+      <c r="M162" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N162" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O162" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P162" s="38" t="s">
         <v>232</v>
@@ -10180,7 +10169,7 @@
         <v>232</v>
       </c>
       <c r="S162" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T162" s="38"/>
       <c r="U162" s="39"/>
@@ -10209,25 +10198,27 @@
         <v>45792</v>
       </c>
       <c r="G163" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="H163" s="37" t="s">
         <v>467</v>
       </c>
-      <c r="H163" s="37" t="s">
+      <c r="I163" s="42" t="s">
         <v>468</v>
-      </c>
-      <c r="I163" s="42" t="s">
-        <v>469</v>
       </c>
       <c r="J163" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K163" s="38"/>
       <c r="L163" s="38"/>
-      <c r="M163" s="38"/>
+      <c r="M163" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N163" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O163" s="38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P163" s="38" t="s">
         <v>232</v>
@@ -10239,7 +10230,7 @@
         <v>232</v>
       </c>
       <c r="S163" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T163" s="38"/>
       <c r="U163" s="39"/>
@@ -10268,25 +10259,27 @@
         <v>45792</v>
       </c>
       <c r="G164" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="H164" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="H164" s="37" t="s">
+      <c r="I164" s="42" t="s">
         <v>471</v>
-      </c>
-      <c r="I164" s="42" t="s">
-        <v>472</v>
       </c>
       <c r="J164" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K164" s="38"/>
       <c r="L164" s="38"/>
-      <c r="M164" s="38"/>
+      <c r="M164" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N164" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O164" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P164" s="38" t="s">
         <v>232</v>
@@ -10298,7 +10291,7 @@
         <v>232</v>
       </c>
       <c r="S164" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T164" s="38"/>
       <c r="U164" s="39"/>
@@ -10327,25 +10320,27 @@
         <v>45792</v>
       </c>
       <c r="G165" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="H165" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="H165" s="37" t="s">
+      <c r="I165" s="42" t="s">
         <v>475</v>
-      </c>
-      <c r="I165" s="42" t="s">
-        <v>476</v>
       </c>
       <c r="J165" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K165" s="38"/>
       <c r="L165" s="38"/>
-      <c r="M165" s="38"/>
+      <c r="M165" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N165" s="38" t="s">
         <v>64</v>
       </c>
       <c r="O165" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P165" s="38" t="s">
         <v>232</v>
@@ -10357,7 +10352,7 @@
         <v>232</v>
       </c>
       <c r="S165" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T165" s="38"/>
       <c r="U165" s="39"/>
@@ -10366,62 +10361,64 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:23" s="65" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="57">
+    <row r="166" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="35">
         <v>443</v>
       </c>
-      <c r="B166" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C166" s="58" t="s">
+      <c r="B166" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="D166" s="57" t="s">
+      <c r="D166" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="E166" s="59" t="s">
+      <c r="E166" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="F166" s="60">
+      <c r="F166" s="37">
         <v>45792</v>
       </c>
-      <c r="G166" s="60" t="s">
+      <c r="G166" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="H166" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="H166" s="60" t="s">
+      <c r="I166" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="I166" s="61" t="s">
+      <c r="J166" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K166" s="38"/>
+      <c r="L166" s="38"/>
+      <c r="M166" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N166" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O166" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="J166" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K166" s="62"/>
-      <c r="L166" s="62"/>
-      <c r="M166" s="62"/>
-      <c r="N166" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="O166" s="62" t="s">
-        <v>481</v>
-      </c>
-      <c r="P166" s="62" t="s">
+      <c r="P166" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="Q166" s="62" t="s">
+      <c r="Q166" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="R166" s="62" t="s">
+      <c r="R166" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="S166" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="T166" s="62"/>
-      <c r="U166" s="63"/>
-      <c r="V166" s="64"/>
-      <c r="W166" s="62" t="s">
+      <c r="S166" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="T166" s="38"/>
+      <c r="U166" s="39"/>
+      <c r="V166" s="40"/>
+      <c r="W166" s="38" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10906,50 +10903,50 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:23" s="65" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="57">
+    <row r="180" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="35">
         <v>460</v>
       </c>
-      <c r="B180" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C180" s="58" t="s">
+      <c r="B180" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="D180" s="57" t="s">
+      <c r="D180" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="E180" s="59" t="s">
+      <c r="E180" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="F180" s="60">
+      <c r="F180" s="37">
         <v>45793</v>
       </c>
-      <c r="G180" s="60" t="s">
+      <c r="G180" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="H180" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="H180" s="60" t="s">
+      <c r="I180" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="I180" s="61" t="s">
-        <v>494</v>
-      </c>
-      <c r="J180" s="62" t="s">
+      <c r="J180" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K180" s="62"/>
-      <c r="L180" s="62"/>
-      <c r="M180" s="62"/>
-      <c r="N180" s="62"/>
-      <c r="O180" s="62"/>
-      <c r="P180" s="62"/>
-      <c r="Q180" s="62"/>
-      <c r="R180" s="62"/>
-      <c r="S180" s="62"/>
-      <c r="T180" s="62"/>
-      <c r="U180" s="63"/>
-      <c r="V180" s="64"/>
-      <c r="W180" s="62" t="s">
+      <c r="K180" s="38"/>
+      <c r="L180" s="38"/>
+      <c r="M180" s="38"/>
+      <c r="N180" s="38"/>
+      <c r="O180" s="38"/>
+      <c r="P180" s="38"/>
+      <c r="Q180" s="38"/>
+      <c r="R180" s="38"/>
+      <c r="S180" s="38"/>
+      <c r="T180" s="38"/>
+      <c r="U180" s="39"/>
+      <c r="V180" s="40"/>
+      <c r="W180" s="38" t="s">
         <v>36</v>
       </c>
     </row>
@@ -17768,6 +17765,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -17779,7 +17785,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18037,16 +18043,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -18063,7 +18068,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18080,12 +18085,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/CORELAB/2.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GTW-CERTIFIER\DEDALUS SPA\CORELAB\2.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F3AE6E-5E22-4099-993D-DD5438A7F547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66ABFEB-4249-4AD6-AFA0-AF59A41CA3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1717,9 +1717,6 @@
 "detail":"[ERRORE-b69| Sotto-sezione Anamnesi (entry Anamnesi familiare): L'elemento entry/organizer/subject/relatedSubject deve contenere l'elemento code.]"</t>
   </si>
   <si>
-    <t>Poiché l'errore è bloccante, non è possibile procedere con la firma e la sottomissione al repository. L'utente dovrà attendere la risoluzione della non conformità e riprovare a firmare il referto.</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -1853,59 +1850,62 @@
     <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.1c16c881f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>"title": "Errore di sintassi.",
+    <t>2025-05-16T08:54:00Z</t>
+  </si>
+  <si>
+    <t>c83395cce6b773418663788e3b414e3e</t>
+  </si>
+  <si>
+    <t>2025-05-16T08:58:00Z</t>
+  </si>
+  <si>
+    <t>f338d89c2c5bfb7563dbf61aa612f811</t>
+  </si>
+  <si>
+    <t>2025-05-16T11:01:00Z</t>
+  </si>
+  <si>
+    <t>a636e07ef649d824a16bc921e6ed5fab</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.aa17d15279^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-16T14:16:00Z</t>
+  </si>
+  <si>
+    <t>150a30e3e9971e05b68918912ba2e7c0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.bbc020faea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-16T14:37:00Z</t>
+  </si>
+  <si>
+    <t>268365cf30ced97e4ff1a9f2cbf755b5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.2e52274b27^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>subject_application_id: CORELAB</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: DEDALUS SPA</t>
+  </si>
+  <si>
+    <t>subject_application_version: 2.0.0</t>
+  </si>
+  <si>
+    <t>"description":"JavaException: java.net.SocketTimeoutException: Read timed out"</t>
+  </si>
+  <si>
+    <t>"title": "Errore semantico.",
 "detail": "ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'entryRelationship' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":sequenceNumber, \"urn:hl7-org:v3\":seperatableInd, \"urn:hl7-org:v3\":act, \"urn:hl7-org:v3\":encounter, \"urn:hl7-org:v3\":observation, \"urn:hl7-org:v3\":observationMedia, \"urn:hl7-org:v3\":organizer, \"urn:hl7-org:v3\":procedure, \"urn:hl7-org:v3\":regionOfInterest, \"urn:hl7-org:v3\":substanceAdministration, \"urn:hl7-org:v3\":supply}' is expected."</t>
   </si>
   <si>
-    <t>2025-05-16T08:54:00Z</t>
-  </si>
-  <si>
-    <t>c83395cce6b773418663788e3b414e3e</t>
-  </si>
-  <si>
-    <t>2025-05-16T08:58:00Z</t>
-  </si>
-  <si>
-    <t>f338d89c2c5bfb7563dbf61aa612f811</t>
-  </si>
-  <si>
-    <t>2025-05-16T11:01:00Z</t>
-  </si>
-  <si>
-    <t>a636e07ef649d824a16bc921e6ed5fab</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.aa17d15279^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-16T14:16:00Z</t>
-  </si>
-  <si>
-    <t>150a30e3e9971e05b68918912ba2e7c0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.bbc020faea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-16T14:37:00Z</t>
-  </si>
-  <si>
-    <t>268365cf30ced97e4ff1a9f2cbf755b5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.2f6a1b6f560a5a9d75cdc0288b8c87ff08cebcb06dc381060587457f35ade821.2e52274b27^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>subject_application_id: CORELAB</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: DEDALUS SPA</t>
-  </si>
-  <si>
-    <t>subject_application_version: 2.0.0</t>
-  </si>
-  <si>
-    <t>"description":"JavaException: java.net.SocketTimeoutException: Read timed out"</t>
+    <t>Poiché l'errore è bloccante, non è possibile procedere con la firma e la sottomissione al repository.  Dopo l'analisi dell'errore in backoffice e la correzione della non conformità evidenziata, l'utente potrà riprovare a firmare il referto.</t>
   </si>
 </sst>
 </file>
@@ -2823,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3973,10 +3973,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M166" sqref="M166"/>
+      <selection pane="bottomRight" activeCell="A166" sqref="A166:XFD166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D3" s="49"/>
       <c r="F3" s="6"/>
@@ -4075,7 +4075,7 @@
       <c r="A4" s="53"/>
       <c r="B4" s="54"/>
       <c r="C4" s="57" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="4"/>
@@ -4102,7 +4102,7 @@
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D5" s="49"/>
       <c r="F5" s="6"/>
@@ -9514,13 +9514,13 @@
         <v>45793</v>
       </c>
       <c r="G151" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="H151" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="I151" s="42" t="s">
         <v>485</v>
-      </c>
-      <c r="H151" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="I151" s="42" t="s">
-        <v>487</v>
       </c>
       <c r="J151" s="38" t="s">
         <v>64</v>
@@ -9561,13 +9561,13 @@
         <v>45793</v>
       </c>
       <c r="G152" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="H152" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="I152" s="42" t="s">
         <v>485</v>
-      </c>
-      <c r="H152" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="I152" s="42" t="s">
-        <v>487</v>
       </c>
       <c r="J152" s="38" t="s">
         <v>64</v>
@@ -9608,13 +9608,13 @@
         <v>45793</v>
       </c>
       <c r="G153" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="H153" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="I153" s="42" t="s">
         <v>488</v>
-      </c>
-      <c r="H153" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="I153" s="42" t="s">
-        <v>490</v>
       </c>
       <c r="J153" s="38" t="s">
         <v>64</v>
@@ -9655,13 +9655,13 @@
         <v>45793</v>
       </c>
       <c r="G154" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H154" s="37" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I154" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J154" s="38" t="s">
         <v>64</v>
@@ -9675,10 +9675,10 @@
         <v>64</v>
       </c>
       <c r="O154" s="38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P154" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q154" s="38" t="s">
         <v>232</v>
@@ -9687,7 +9687,7 @@
         <v>232</v>
       </c>
       <c r="S154" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T154" s="38"/>
       <c r="U154" s="39"/>
@@ -9716,13 +9716,13 @@
         <v>45793</v>
       </c>
       <c r="G155" s="37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H155" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I155" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J155" s="38" t="s">
         <v>64</v>
@@ -9736,10 +9736,10 @@
         <v>64</v>
       </c>
       <c r="O155" s="38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P155" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q155" s="38" t="s">
         <v>232</v>
@@ -9748,7 +9748,7 @@
         <v>232</v>
       </c>
       <c r="S155" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T155" s="38"/>
       <c r="U155" s="39"/>
@@ -9791,10 +9791,10 @@
         <v>64</v>
       </c>
       <c r="O156" s="38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="P156" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q156" s="38" t="s">
         <v>232</v>
@@ -9803,7 +9803,7 @@
         <v>232</v>
       </c>
       <c r="S156" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T156" s="38"/>
       <c r="U156" s="39"/>
@@ -9832,13 +9832,13 @@
         <v>45792</v>
       </c>
       <c r="G157" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="H157" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="H157" s="37" t="s">
+      <c r="I157" s="42" t="s">
         <v>443</v>
-      </c>
-      <c r="I157" s="42" t="s">
-        <v>444</v>
       </c>
       <c r="J157" s="38" t="s">
         <v>64</v>
@@ -9852,10 +9852,10 @@
         <v>64</v>
       </c>
       <c r="O157" s="38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P157" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q157" s="38" t="s">
         <v>232</v>
@@ -9864,7 +9864,7 @@
         <v>232</v>
       </c>
       <c r="S157" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T157" s="38"/>
       <c r="U157" s="39"/>
@@ -9893,13 +9893,13 @@
         <v>45792</v>
       </c>
       <c r="G158" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="H158" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="H158" s="37" t="s">
+      <c r="I158" s="42" t="s">
         <v>447</v>
-      </c>
-      <c r="I158" s="42" t="s">
-        <v>448</v>
       </c>
       <c r="J158" s="38" t="s">
         <v>64</v>
@@ -9913,10 +9913,10 @@
         <v>64</v>
       </c>
       <c r="O158" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P158" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q158" s="38" t="s">
         <v>232</v>
@@ -9925,7 +9925,7 @@
         <v>232</v>
       </c>
       <c r="S158" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T158" s="38"/>
       <c r="U158" s="39"/>
@@ -9954,13 +9954,13 @@
         <v>45792</v>
       </c>
       <c r="G159" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="H159" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="H159" s="37" t="s">
+      <c r="I159" s="42" t="s">
         <v>451</v>
-      </c>
-      <c r="I159" s="42" t="s">
-        <v>452</v>
       </c>
       <c r="J159" s="38" t="s">
         <v>64</v>
@@ -9974,10 +9974,10 @@
         <v>64</v>
       </c>
       <c r="O159" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P159" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q159" s="38" t="s">
         <v>232</v>
@@ -9986,7 +9986,7 @@
         <v>232</v>
       </c>
       <c r="S159" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T159" s="38"/>
       <c r="U159" s="39"/>
@@ -10015,13 +10015,13 @@
         <v>45792</v>
       </c>
       <c r="G160" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="H160" s="37" t="s">
         <v>454</v>
       </c>
-      <c r="H160" s="37" t="s">
+      <c r="I160" s="42" t="s">
         <v>455</v>
-      </c>
-      <c r="I160" s="42" t="s">
-        <v>456</v>
       </c>
       <c r="J160" s="38" t="s">
         <v>64</v>
@@ -10035,10 +10035,10 @@
         <v>64</v>
       </c>
       <c r="O160" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P160" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q160" s="38" t="s">
         <v>232</v>
@@ -10047,7 +10047,7 @@
         <v>232</v>
       </c>
       <c r="S160" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T160" s="38"/>
       <c r="U160" s="39"/>
@@ -10076,13 +10076,13 @@
         <v>45792</v>
       </c>
       <c r="G161" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="H161" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="H161" s="37" t="s">
+      <c r="I161" s="42" t="s">
         <v>459</v>
-      </c>
-      <c r="I161" s="42" t="s">
-        <v>460</v>
       </c>
       <c r="J161" s="38" t="s">
         <v>64</v>
@@ -10096,10 +10096,10 @@
         <v>64</v>
       </c>
       <c r="O161" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P161" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q161" s="38" t="s">
         <v>232</v>
@@ -10108,7 +10108,7 @@
         <v>232</v>
       </c>
       <c r="S161" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T161" s="38"/>
       <c r="U161" s="39"/>
@@ -10137,13 +10137,13 @@
         <v>45792</v>
       </c>
       <c r="G162" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="H162" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="H162" s="37" t="s">
+      <c r="I162" s="42" t="s">
         <v>463</v>
-      </c>
-      <c r="I162" s="42" t="s">
-        <v>464</v>
       </c>
       <c r="J162" s="38" t="s">
         <v>64</v>
@@ -10157,10 +10157,10 @@
         <v>64</v>
       </c>
       <c r="O162" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P162" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q162" s="38" t="s">
         <v>232</v>
@@ -10169,7 +10169,7 @@
         <v>232</v>
       </c>
       <c r="S162" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T162" s="38"/>
       <c r="U162" s="39"/>
@@ -10198,13 +10198,13 @@
         <v>45792</v>
       </c>
       <c r="G163" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="H163" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="H163" s="37" t="s">
+      <c r="I163" s="42" t="s">
         <v>467</v>
-      </c>
-      <c r="I163" s="42" t="s">
-        <v>468</v>
       </c>
       <c r="J163" s="38" t="s">
         <v>64</v>
@@ -10221,7 +10221,7 @@
         <v>437</v>
       </c>
       <c r="P163" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q163" s="38" t="s">
         <v>232</v>
@@ -10230,7 +10230,7 @@
         <v>232</v>
       </c>
       <c r="S163" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T163" s="38"/>
       <c r="U163" s="39"/>
@@ -10259,13 +10259,13 @@
         <v>45792</v>
       </c>
       <c r="G164" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="H164" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="H164" s="37" t="s">
+      <c r="I164" s="42" t="s">
         <v>470</v>
-      </c>
-      <c r="I164" s="42" t="s">
-        <v>471</v>
       </c>
       <c r="J164" s="38" t="s">
         <v>64</v>
@@ -10279,10 +10279,10 @@
         <v>64</v>
       </c>
       <c r="O164" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P164" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q164" s="38" t="s">
         <v>232</v>
@@ -10291,7 +10291,7 @@
         <v>232</v>
       </c>
       <c r="S164" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T164" s="38"/>
       <c r="U164" s="39"/>
@@ -10320,13 +10320,13 @@
         <v>45792</v>
       </c>
       <c r="G165" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="H165" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="H165" s="37" t="s">
+      <c r="I165" s="42" t="s">
         <v>474</v>
-      </c>
-      <c r="I165" s="42" t="s">
-        <v>475</v>
       </c>
       <c r="J165" s="38" t="s">
         <v>64</v>
@@ -10340,10 +10340,10 @@
         <v>64</v>
       </c>
       <c r="O165" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P165" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q165" s="38" t="s">
         <v>232</v>
@@ -10352,7 +10352,7 @@
         <v>232</v>
       </c>
       <c r="S165" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T165" s="38"/>
       <c r="U165" s="39"/>
@@ -10381,13 +10381,13 @@
         <v>45792</v>
       </c>
       <c r="G166" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="H166" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="H166" s="37" t="s">
+      <c r="I166" s="42" t="s">
         <v>478</v>
-      </c>
-      <c r="I166" s="42" t="s">
-        <v>479</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10401,10 +10401,10 @@
         <v>64</v>
       </c>
       <c r="O166" s="38" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="P166" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q166" s="38" t="s">
         <v>232</v>
@@ -10413,7 +10413,7 @@
         <v>232</v>
       </c>
       <c r="S166" s="38" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="T166" s="38"/>
       <c r="U166" s="39"/>
@@ -10923,13 +10923,13 @@
         <v>45793</v>
       </c>
       <c r="G180" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="H180" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="I180" s="42" t="s">
         <v>491</v>
-      </c>
-      <c r="H180" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="I180" s="42" t="s">
-        <v>493</v>
       </c>
       <c r="J180" s="38" t="s">
         <v>64</v>
@@ -15581,7 +15581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
@@ -17765,27 +17765,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18043,32 +18022,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18085,4 +18060,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>